--- a/overview.xlsx
+++ b/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C53CBD-F7B3-446B-A865-604DA7690EA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA238750-650E-40BF-90D0-9E5C2903868D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DA9F082-1D90-46F9-BC45-81B8A7A3A050}"/>
   </bookViews>
@@ -243,9 +243,6 @@
     <t>5 h</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>issues.csv,
 users_reduced_IDs.json,
 standaloneProjectIDs.json</t>
@@ -375,6 +372,9 @@
   <si>
     <t>{"712": {1: {"start": "2011-06-27", "end": "2011-06-29", "len": 3}, … }, … }
 {"712": {"f": 182, "w": 7912}, … }</t>
+  </si>
+  <si>
+    <t>2 h</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -891,7 +891,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -917,7 +917,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>34</v>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>34</v>
@@ -969,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>33</v>
@@ -978,10 +978,10 @@
         <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>35</v>
@@ -1004,7 +1004,7 @@
         <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>39</v>
@@ -1041,22 +1041,22 @@
         <v>40</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1067,22 +1067,22 @@
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1096,19 +1096,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -1125,16 +1125,16 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/overview.xlsx
+++ b/overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA238750-650E-40BF-90D0-9E5C2903868D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834B233-FB25-4742-8BD3-7273D33CCD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DA9F082-1D90-46F9-BC45-81B8A7A3A050}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>description</t>
   </si>
@@ -375,6 +375,21 @@
   </si>
   <si>
     <t>2 h</t>
+  </si>
+  <si>
+    <t>getWeekenders.py</t>
+  </si>
+  <si>
+    <t>weekenders.json</t>
+  </si>
+  <si>
+    <t>{"[userID]": {"WD": [numberContributions], "WE": [numberContributions]}, … }</t>
+  </si>
+  <si>
+    <t>{"712": {"WD": 1627, "WE": 524}, … }</t>
+  </si>
+  <si>
+    <t>creates file for number of contributions on weekdays and weekends (in the local timezone) for each user</t>
   </si>
 </sst>
 </file>
@@ -806,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029F670-A500-4107-B589-0CCEAFD0F2C8}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,6 +1152,29 @@
         <v>77</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/overview.xlsx
+++ b/overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834B233-FB25-4742-8BD3-7273D33CCD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4378835-1322-4D6E-B55B-1A9A5C855216}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DA9F082-1D90-46F9-BC45-81B8A7A3A050}"/>
   </bookViews>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>getStreaks.py</t>
-  </si>
-  <si>
-    <t>commitsdates_per_user.json, users_reduced.json</t>
   </si>
   <si>
     <t>users_streaks.json,
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>creates file for number of contributions on weekdays and weekends (in the local timezone) for each user</t>
+  </si>
+  <si>
+    <t>contribution_per_user.json, users_reduced.json</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,10 +842,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -854,13 +854,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>0</v>
@@ -868,311 +868,311 @@
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
